--- a/MasterCountSheet.xlsx
+++ b/MasterCountSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejnic\Documents\BONWRAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6316C54-7D78-4B4A-B68C-7F1D93D7E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39D6E7-B6AE-4B7B-853C-87E9981FC19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C8658AB-1D65-4586-B8E3-CBCB320D0820}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>hegon</t>
+  </si>
+  <si>
+    <t>Common Name</t>
   </si>
 </sst>
 </file>
@@ -1100,11 +1100,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A49DBB-E3C7-4F3C-B8AD-9EA7CC829232}">
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,6 +1114,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
       <c r="F1">
         <v>1999</v>
       </c>
@@ -1179,178 +1192,235 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2">
+        <v>71</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>44</v>
+      </c>
+      <c r="P2">
+        <v>75</v>
+      </c>
+      <c r="Q2">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>26</v>
+      </c>
+      <c r="T2">
+        <v>32</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>9</v>
+      </c>
+      <c r="X2">
+        <v>17</v>
+      </c>
+      <c r="Y2">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
         <v>18</v>
       </c>
-      <c r="K3">
-        <v>44</v>
-      </c>
-      <c r="L3">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>71</v>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <v>44</v>
-      </c>
-      <c r="P3">
-        <v>75</v>
-      </c>
-      <c r="Q3">
-        <v>51</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>26</v>
-      </c>
-      <c r="T3">
-        <v>32</v>
-      </c>
-      <c r="U3">
-        <v>7</v>
-      </c>
-      <c r="V3">
-        <v>19</v>
-      </c>
-      <c r="W3">
-        <v>9</v>
-      </c>
       <c r="X3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y3">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="F4">
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="N4">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>11</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>18</v>
-      </c>
       <c r="X4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
@@ -1359,72 +1429,33 @@
         <v>72</v>
       </c>
       <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>24</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>9</v>
-      </c>
-      <c r="W5">
-        <v>8</v>
-      </c>
-      <c r="X5">
-        <v>16</v>
-      </c>
       <c r="Y5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -1433,33 +1464,75 @@
         <v>72</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>54</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J6">
+        <v>61</v>
+      </c>
+      <c r="K6">
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <v>87</v>
+      </c>
+      <c r="M6">
+        <v>138</v>
+      </c>
+      <c r="N6">
+        <v>355</v>
+      </c>
+      <c r="O6">
+        <v>46</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>1503</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>673</v>
+      </c>
+      <c r="S6">
+        <v>78</v>
+      </c>
+      <c r="T6">
+        <v>428</v>
+      </c>
+      <c r="U6">
+        <v>185</v>
+      </c>
+      <c r="V6">
+        <v>312</v>
+      </c>
+      <c r="W6">
+        <v>611</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
@@ -1468,299 +1541,299 @@
         <v>72</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="G7">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I7">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="J7">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="K7">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="L7">
-        <v>87</v>
+        <v>256</v>
       </c>
       <c r="M7">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O7">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="P7">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q7">
-        <v>1503</v>
+        <v>228</v>
       </c>
       <c r="R7">
-        <v>673</v>
+        <v>342</v>
       </c>
       <c r="S7">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="T7">
-        <v>428</v>
+        <v>284</v>
       </c>
       <c r="U7">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="V7">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="W7">
-        <v>611</v>
+        <v>452</v>
       </c>
       <c r="X7">
         <v>17</v>
       </c>
       <c r="Y7">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>161</v>
-      </c>
-      <c r="G8">
-        <v>117</v>
-      </c>
-      <c r="H8">
-        <v>90</v>
-      </c>
-      <c r="I8">
-        <v>228</v>
-      </c>
-      <c r="J8">
-        <v>81</v>
-      </c>
-      <c r="K8">
-        <v>352</v>
-      </c>
-      <c r="L8">
-        <v>256</v>
-      </c>
-      <c r="M8">
-        <v>85</v>
-      </c>
-      <c r="N8">
-        <v>396</v>
-      </c>
-      <c r="O8">
-        <v>127</v>
-      </c>
-      <c r="P8">
-        <v>85</v>
-      </c>
-      <c r="Q8">
-        <v>228</v>
-      </c>
-      <c r="R8">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="S8">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="U8">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="V8">
-        <v>284</v>
-      </c>
-      <c r="W8">
-        <v>452</v>
+        <v>16</v>
       </c>
       <c r="X8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>104</v>
+      </c>
+      <c r="M9">
+        <v>62</v>
+      </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
+      <c r="O9">
+        <v>232</v>
+      </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
+      <c r="Q9">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="R9">
+        <v>48</v>
+      </c>
+      <c r="S9">
+        <v>47</v>
+      </c>
+      <c r="T9">
+        <v>21</v>
+      </c>
+      <c r="U9">
+        <v>49</v>
+      </c>
+      <c r="V9">
+        <v>57</v>
+      </c>
+      <c r="W9">
         <v>74</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>23</v>
-      </c>
-      <c r="U9">
-        <v>13</v>
-      </c>
-      <c r="V9">
-        <v>16</v>
-      </c>
       <c r="X9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
         <v>72</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="I10">
-        <v>59</v>
-      </c>
       <c r="J10">
-        <v>60</v>
-      </c>
-      <c r="K10">
-        <v>22</v>
-      </c>
-      <c r="L10">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>62</v>
-      </c>
-      <c r="N10">
-        <v>21</v>
-      </c>
-      <c r="O10">
-        <v>232</v>
-      </c>
-      <c r="P10">
-        <v>25</v>
-      </c>
-      <c r="Q10">
-        <v>73</v>
-      </c>
-      <c r="R10">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>21</v>
-      </c>
-      <c r="U10">
-        <v>49</v>
-      </c>
-      <c r="V10">
-        <v>57</v>
-      </c>
-      <c r="W10">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Y10">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
       <c r="J11">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>138</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="N11">
+        <v>91</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>216</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="U11">
+        <v>174</v>
+      </c>
+      <c r="V11">
+        <v>32</v>
+      </c>
+      <c r="W11">
+        <v>71</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1769,392 +1842,341 @@
         <v>72</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="I12">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J12">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N12">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="O12">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="P12">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="Q12">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="T12">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="U12">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="V12">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="W12">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="X12">
         <v>17</v>
       </c>
       <c r="Y12">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13">
-        <v>38</v>
-      </c>
-      <c r="G13">
-        <v>22</v>
-      </c>
-      <c r="H13">
-        <v>111</v>
-      </c>
-      <c r="I13">
-        <v>131</v>
-      </c>
-      <c r="J13">
-        <v>71</v>
-      </c>
-      <c r="K13">
-        <v>298</v>
-      </c>
-      <c r="L13">
-        <v>85</v>
-      </c>
       <c r="M13">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>145</v>
-      </c>
-      <c r="P13">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="T13">
-        <v>43</v>
-      </c>
-      <c r="U13">
-        <v>196</v>
-      </c>
-      <c r="V13">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="X13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y13">
-        <v>110</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>16</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="U14">
+        <v>11</v>
       </c>
       <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
         <v>7</v>
-      </c>
-      <c r="X14">
-        <v>12</v>
-      </c>
-      <c r="Y14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>31</v>
-      </c>
-      <c r="J15">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="F16">
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>7</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>28</v>
-      </c>
-      <c r="S16">
-        <v>11</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>6</v>
-      </c>
-      <c r="W16">
-        <v>7</v>
-      </c>
-      <c r="X16">
-        <v>10</v>
-      </c>
       <c r="Y16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
       <c r="S17">
-        <v>17</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="S18">
-        <v>9</v>
-      </c>
-      <c r="W18">
-        <v>2</v>
+      <c r="T18">
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="T19">
+      <c r="O19">
         <v>1</v>
       </c>
       <c r="X19">
@@ -2166,13 +2188,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>123</v>
@@ -2180,11 +2202,17 @@
       <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="O20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="U20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2192,13 +2220,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>124</v>
@@ -2206,17 +2234,11 @@
       <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="U21">
+      <c r="M21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2224,21 +2246,21 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22">
+        <v>78</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
       <c r="X22">
@@ -2250,78 +2272,99 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
       <c r="X23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="F24">
-        <v>27</v>
-      </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
       </c>
       <c r="V24">
         <v>1</v>
       </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
       <c r="X24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y24">
         <v>2</v>
@@ -2329,442 +2372,454 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
       </c>
+      <c r="F25">
+        <v>43</v>
+      </c>
       <c r="G25">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>132</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="L25">
+        <v>236</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="O25">
+        <v>368</v>
+      </c>
+      <c r="P25">
+        <v>13</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>140</v>
+      </c>
+      <c r="R25">
+        <v>49</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>32</v>
       </c>
       <c r="X25">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="L26">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N26">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="R26">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="U26">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="V26">
+        <v>8</v>
+      </c>
+      <c r="W26">
         <v>12</v>
-      </c>
-      <c r="W26">
-        <v>32</v>
       </c>
       <c r="X26">
         <v>17</v>
       </c>
       <c r="Y26">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>9</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>7</v>
-      </c>
-      <c r="S27">
-        <v>8</v>
-      </c>
-      <c r="T27">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>8</v>
-      </c>
-      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
         <v>12</v>
       </c>
-      <c r="X27">
-        <v>17</v>
-      </c>
       <c r="Y27">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O28">
         <v>2</v>
       </c>
-      <c r="R28">
-        <v>2</v>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>3</v>
-      </c>
-      <c r="V28">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
       </c>
       <c r="X28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
         <v>72</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="G29">
+        <v>122</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>66</v>
+      </c>
+      <c r="L29">
+        <v>193</v>
+      </c>
+      <c r="M29">
+        <v>167</v>
+      </c>
+      <c r="N29">
+        <v>30</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="P29">
+        <v>121</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="R29">
+        <v>19</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="T29">
+        <v>100</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="V29">
+        <v>59</v>
       </c>
       <c r="W29">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="X29">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
       </c>
-      <c r="F30">
-        <v>203</v>
-      </c>
-      <c r="G30">
-        <v>122</v>
-      </c>
-      <c r="H30">
-        <v>36</v>
-      </c>
       <c r="I30">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="K30">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>172</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>13</v>
+      </c>
+      <c r="W30">
         <v>30</v>
       </c>
-      <c r="O30">
-        <v>151</v>
-      </c>
-      <c r="P30">
-        <v>121</v>
-      </c>
-      <c r="Q30">
-        <v>87</v>
-      </c>
-      <c r="R30">
+      <c r="X30">
+        <v>11</v>
+      </c>
+      <c r="Y30">
         <v>19</v>
-      </c>
-      <c r="S30">
-        <v>19</v>
-      </c>
-      <c r="T30">
-        <v>100</v>
-      </c>
-      <c r="U30">
-        <v>100</v>
-      </c>
-      <c r="V30">
-        <v>59</v>
-      </c>
-      <c r="W30">
-        <v>46</v>
-      </c>
-      <c r="X30">
-        <v>17</v>
-      </c>
-      <c r="Y30">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
       </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
       <c r="I31">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>222</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>35</v>
+      </c>
+      <c r="S31">
+        <v>11</v>
+      </c>
+      <c r="T31">
         <v>15</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>11</v>
-      </c>
-      <c r="M31">
-        <v>82</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>172</v>
-      </c>
-      <c r="R31">
+      <c r="U31">
         <v>10</v>
       </c>
-      <c r="S31">
-        <v>4</v>
-      </c>
-      <c r="U31">
-        <v>13</v>
+      <c r="V31">
+        <v>6</v>
       </c>
       <c r="W31">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X31">
         <v>11</v>
@@ -2775,149 +2830,167 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
       </c>
+      <c r="F32">
+        <v>76</v>
+      </c>
       <c r="G32">
-        <v>8</v>
+        <v>87</v>
+      </c>
+      <c r="H32">
+        <v>87</v>
       </c>
       <c r="I32">
-        <v>12</v>
+        <v>736</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>256</v>
+      </c>
+      <c r="L32">
+        <v>375</v>
+      </c>
+      <c r="M32">
+        <v>286</v>
       </c>
       <c r="N32">
-        <v>222</v>
+        <v>404</v>
+      </c>
+      <c r="O32">
+        <v>137</v>
+      </c>
+      <c r="P32">
+        <v>117</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>775</v>
       </c>
       <c r="R32">
-        <v>35</v>
+        <v>385</v>
       </c>
       <c r="S32">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="T32">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="W32">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="X32">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y32">
-        <v>19</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
       </c>
       <c r="F33">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I33">
-        <v>736</v>
+        <v>28</v>
       </c>
       <c r="J33">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="L33">
-        <v>375</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="N33">
-        <v>404</v>
+        <v>35</v>
       </c>
       <c r="O33">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="P33">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>775</v>
+        <v>29</v>
       </c>
       <c r="R33">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="S33">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="U33">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="V33">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="W33">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="X33">
         <v>17</v>
       </c>
       <c r="Y33">
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
@@ -2929,222 +3002,216 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I34">
+        <v>65</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>18</v>
+      </c>
+      <c r="N34">
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
         <v>28</v>
       </c>
-      <c r="J34">
-        <v>18</v>
-      </c>
-      <c r="K34">
-        <v>12</v>
-      </c>
-      <c r="L34">
-        <v>21</v>
-      </c>
-      <c r="M34">
-        <v>53</v>
-      </c>
-      <c r="N34">
-        <v>35</v>
-      </c>
-      <c r="O34">
-        <v>9</v>
-      </c>
-      <c r="P34">
-        <v>6</v>
-      </c>
-      <c r="Q34">
-        <v>29</v>
-      </c>
       <c r="R34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="U34">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="V34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="X34">
         <v>17</v>
       </c>
       <c r="Y34">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I35">
-        <v>65</v>
-      </c>
-      <c r="J35">
-        <v>11</v>
-      </c>
-      <c r="K35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L35">
-        <v>26</v>
-      </c>
-      <c r="M35">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O35">
-        <v>20</v>
-      </c>
-      <c r="P35">
-        <v>3</v>
-      </c>
-      <c r="Q35">
-        <v>28</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>40</v>
-      </c>
-      <c r="V35">
-        <v>8</v>
-      </c>
-      <c r="W35">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="X35">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y35">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36">
-        <v>63</v>
-      </c>
-      <c r="I36">
-        <v>20</v>
-      </c>
-      <c r="L36">
-        <v>40</v>
-      </c>
-      <c r="N36">
-        <v>13</v>
-      </c>
-      <c r="O36">
-        <v>7</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y36">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
         <v>155</v>
@@ -3152,70 +3219,52 @@
       <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
       <c r="H38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
         <v>11</v>
       </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
       <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
         <v>9</v>
       </c>
-      <c r="O38">
-        <v>8</v>
-      </c>
       <c r="P38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>4</v>
-      </c>
-      <c r="R38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>3</v>
-      </c>
-      <c r="W38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
         <v>156</v>
@@ -3223,386 +3272,398 @@
       <c r="E39" t="s">
         <v>72</v>
       </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
       <c r="H39">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="O39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="R39">
+        <v>14</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>14</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <v>12</v>
       </c>
       <c r="X39">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y39">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
         <v>72</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G40">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H40">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I40">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="J40">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="O40">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="P40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="R40">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="T40">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U40">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V40">
         <v>8</v>
       </c>
       <c r="W40">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="X40">
         <v>17</v>
       </c>
       <c r="Y40">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>71</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>349</v>
+      </c>
+      <c r="J41">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>42</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>46</v>
+      </c>
+      <c r="N41">
+        <v>95</v>
+      </c>
+      <c r="O41">
+        <v>24</v>
+      </c>
+      <c r="P41">
+        <v>18</v>
+      </c>
+      <c r="Q41">
+        <v>76</v>
+      </c>
+      <c r="R41">
+        <v>31</v>
+      </c>
+      <c r="S41">
+        <v>18</v>
+      </c>
+      <c r="T41">
+        <v>48</v>
+      </c>
+      <c r="U41">
         <v>75</v>
       </c>
-      <c r="G41">
-        <v>65</v>
-      </c>
-      <c r="H41">
-        <v>12</v>
-      </c>
-      <c r="I41">
-        <v>257</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
-      <c r="K41">
-        <v>20</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>24</v>
-      </c>
-      <c r="N41">
-        <v>13</v>
-      </c>
-      <c r="O41">
-        <v>38</v>
-      </c>
-      <c r="P41">
-        <v>8</v>
-      </c>
-      <c r="Q41">
-        <v>143</v>
-      </c>
-      <c r="R41">
-        <v>115</v>
-      </c>
-      <c r="S41">
-        <v>169</v>
-      </c>
-      <c r="T41">
-        <v>9</v>
-      </c>
-      <c r="U41">
-        <v>24</v>
-      </c>
       <c r="V41">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="W41">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="X41">
         <v>17</v>
       </c>
       <c r="Y41">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
         <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I42">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="J42">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K42">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="L42">
+        <v>86</v>
+      </c>
+      <c r="M42">
+        <v>45</v>
+      </c>
+      <c r="N42">
+        <v>85</v>
+      </c>
+      <c r="O42">
+        <v>58</v>
+      </c>
+      <c r="P42">
+        <v>39</v>
+      </c>
+      <c r="Q42">
+        <v>59</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <v>16</v>
+      </c>
+      <c r="U42">
+        <v>37</v>
+      </c>
+      <c r="V42">
+        <v>18</v>
+      </c>
+      <c r="W42">
         <v>29</v>
-      </c>
-      <c r="M42">
-        <v>46</v>
-      </c>
-      <c r="N42">
-        <v>95</v>
-      </c>
-      <c r="O42">
-        <v>24</v>
-      </c>
-      <c r="P42">
-        <v>18</v>
-      </c>
-      <c r="Q42">
-        <v>76</v>
-      </c>
-      <c r="R42">
-        <v>31</v>
-      </c>
-      <c r="S42">
-        <v>18</v>
-      </c>
-      <c r="T42">
-        <v>48</v>
-      </c>
-      <c r="U42">
-        <v>75</v>
-      </c>
-      <c r="V42">
-        <v>34</v>
-      </c>
-      <c r="W42">
-        <v>17</v>
       </c>
       <c r="X42">
         <v>17</v>
       </c>
       <c r="Y42">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
         <v>72</v>
       </c>
-      <c r="F43">
-        <v>22</v>
-      </c>
-      <c r="G43">
-        <v>44</v>
-      </c>
-      <c r="H43">
-        <v>17</v>
-      </c>
-      <c r="I43">
-        <v>93</v>
-      </c>
-      <c r="J43">
-        <v>32</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-      <c r="L43">
-        <v>86</v>
-      </c>
-      <c r="M43">
-        <v>45</v>
-      </c>
-      <c r="N43">
-        <v>85</v>
-      </c>
-      <c r="O43">
-        <v>58</v>
-      </c>
-      <c r="P43">
-        <v>39</v>
-      </c>
       <c r="Q43">
-        <v>59</v>
-      </c>
-      <c r="R43">
-        <v>10</v>
-      </c>
-      <c r="S43">
-        <v>14</v>
-      </c>
-      <c r="T43">
-        <v>16</v>
-      </c>
-      <c r="U43">
-        <v>37</v>
-      </c>
-      <c r="V43">
-        <v>18</v>
-      </c>
-      <c r="W43">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
         <v>72</v>
       </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
       <c r="Q44">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>21</v>
+      </c>
+      <c r="U44">
+        <v>13</v>
+      </c>
+      <c r="V44">
+        <v>14</v>
+      </c>
+      <c r="W44">
+        <v>8</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
         <v>166</v>
@@ -3610,598 +3671,604 @@
       <c r="E45" t="s">
         <v>72</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
       <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>12</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
+        <v>7</v>
+      </c>
+      <c r="W45">
+        <v>30</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
         <v>4</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>18</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>21</v>
-      </c>
-      <c r="U45">
-        <v>13</v>
-      </c>
-      <c r="V45">
-        <v>14</v>
-      </c>
-      <c r="W45">
-        <v>8</v>
-      </c>
-      <c r="X45">
-        <v>13</v>
-      </c>
-      <c r="Y45">
-        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
         <v>72</v>
       </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
       <c r="I46">
-        <v>10</v>
-      </c>
-      <c r="J46">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
       </c>
       <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>15</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>30</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
         <v>12</v>
       </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>10</v>
-      </c>
-      <c r="Q46">
-        <v>11</v>
-      </c>
       <c r="T46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W46">
         <v>30</v>
       </c>
       <c r="X46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y46">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
         <v>72</v>
       </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>12</v>
-      </c>
-      <c r="I47">
-        <v>24</v>
-      </c>
-      <c r="K47">
-        <v>8</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
       <c r="M47">
-        <v>3</v>
-      </c>
-      <c r="N47">
-        <v>15</v>
-      </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>30</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47">
-        <v>12</v>
-      </c>
-      <c r="T47">
-        <v>5</v>
-      </c>
-      <c r="U47">
-        <v>6</v>
-      </c>
-      <c r="V47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="X47">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
       </c>
-      <c r="M48">
-        <v>1</v>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>8</v>
       </c>
       <c r="W48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
         <v>72</v>
       </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <v>77</v>
+      </c>
+      <c r="K49">
+        <v>29</v>
+      </c>
+      <c r="L49">
+        <v>63</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
       <c r="N49">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="O49">
+        <v>57</v>
+      </c>
+      <c r="P49">
+        <v>142</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>16</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
         <v>72</v>
       </c>
       <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>44</v>
+      </c>
+      <c r="J50">
+        <v>293</v>
+      </c>
+      <c r="K50">
+        <v>94</v>
+      </c>
+      <c r="L50">
+        <v>340</v>
+      </c>
+      <c r="M50">
+        <v>143</v>
+      </c>
+      <c r="N50">
+        <v>14</v>
+      </c>
+      <c r="O50">
+        <v>33</v>
+      </c>
+      <c r="P50">
+        <v>97</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>7</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
+      <c r="U50">
         <v>10</v>
       </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>11</v>
-      </c>
-      <c r="J50">
-        <v>77</v>
-      </c>
-      <c r="K50">
-        <v>29</v>
-      </c>
-      <c r="L50">
-        <v>63</v>
-      </c>
-      <c r="M50">
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
         <v>13</v>
       </c>
-      <c r="N50">
-        <v>26</v>
-      </c>
-      <c r="O50">
-        <v>57</v>
-      </c>
-      <c r="P50">
-        <v>142</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
-      <c r="R50">
+      <c r="X50">
         <v>16</v>
       </c>
-      <c r="S50">
-        <v>3</v>
-      </c>
-      <c r="T50">
-        <v>5</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-      <c r="W50">
-        <v>14</v>
-      </c>
-      <c r="X50">
-        <v>15</v>
-      </c>
       <c r="Y50">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <v>49</v>
+      </c>
+      <c r="K51">
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+      <c r="N51">
+        <v>106</v>
+      </c>
+      <c r="O51">
+        <v>49</v>
+      </c>
+      <c r="P51">
+        <v>48</v>
+      </c>
+      <c r="Q51">
+        <v>117</v>
+      </c>
+      <c r="R51">
+        <v>65</v>
+      </c>
+      <c r="S51">
+        <v>20</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>39</v>
+      </c>
+      <c r="V51">
+        <v>46</v>
+      </c>
+      <c r="W51">
+        <v>28</v>
+      </c>
+      <c r="X51">
+        <v>17</v>
+      </c>
+      <c r="Y51">
         <v>43</v>
-      </c>
-      <c r="B51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51">
-        <v>7</v>
-      </c>
-      <c r="H51">
-        <v>14</v>
-      </c>
-      <c r="I51">
-        <v>44</v>
-      </c>
-      <c r="J51">
-        <v>293</v>
-      </c>
-      <c r="K51">
-        <v>94</v>
-      </c>
-      <c r="L51">
-        <v>340</v>
-      </c>
-      <c r="M51">
-        <v>143</v>
-      </c>
-      <c r="N51">
-        <v>14</v>
-      </c>
-      <c r="O51">
-        <v>33</v>
-      </c>
-      <c r="P51">
-        <v>97</v>
-      </c>
-      <c r="Q51">
-        <v>7</v>
-      </c>
-      <c r="R51">
-        <v>7</v>
-      </c>
-      <c r="S51">
-        <v>9</v>
-      </c>
-      <c r="T51">
-        <v>11</v>
-      </c>
-      <c r="U51">
-        <v>10</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>13</v>
-      </c>
-      <c r="X51">
-        <v>16</v>
-      </c>
-      <c r="Y51">
-        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
       </c>
       <c r="F52">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52">
+        <v>163</v>
+      </c>
+      <c r="H52">
         <v>18</v>
       </c>
-      <c r="H52">
-        <v>23</v>
-      </c>
       <c r="I52">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J52">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>8</v>
+        <v>314</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="M52">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N52">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="O52">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P52">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="Q52">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="R52">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="S52">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="U52">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="V52">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="W52">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="X52">
         <v>17</v>
       </c>
       <c r="Y52">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
         <v>72</v>
       </c>
-      <c r="F53">
-        <v>47</v>
-      </c>
       <c r="G53">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>18</v>
-      </c>
-      <c r="I53">
-        <v>124</v>
-      </c>
-      <c r="J53">
-        <v>114</v>
-      </c>
-      <c r="K53">
-        <v>314</v>
-      </c>
-      <c r="L53">
-        <v>102</v>
-      </c>
-      <c r="M53">
-        <v>56</v>
-      </c>
-      <c r="N53">
-        <v>149</v>
-      </c>
-      <c r="O53">
-        <v>46</v>
-      </c>
-      <c r="P53">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>232</v>
-      </c>
-      <c r="R53">
-        <v>97</v>
-      </c>
-      <c r="S53">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="V53">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="W53">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="X53">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Y53">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
         <v>183</v>
       </c>
-      <c r="D54" t="s">
-        <v>184</v>
-      </c>
       <c r="E54" t="s">
         <v>72</v>
       </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>33</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>19</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>18</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U54">
+        <v>6</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <v>15</v>
+      </c>
+      <c r="Y54">
         <v>7</v>
-      </c>
-      <c r="V54">
-        <v>3</v>
-      </c>
-      <c r="W54">
-        <v>7</v>
-      </c>
-      <c r="X54">
-        <v>6</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
         <v>184</v>
@@ -4209,82 +4276,40 @@
       <c r="E55" t="s">
         <v>72</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="I55">
-        <v>11</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-      <c r="K55">
-        <v>33</v>
-      </c>
-      <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
       <c r="N55">
-        <v>19</v>
-      </c>
-      <c r="O55">
-        <v>4</v>
-      </c>
-      <c r="Q55">
-        <v>2</v>
-      </c>
-      <c r="R55">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>3</v>
-      </c>
-      <c r="T55">
-        <v>4</v>
-      </c>
-      <c r="U55">
-        <v>6</v>
-      </c>
-      <c r="W55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X55">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Y55">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
         <v>72</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="S56">
-        <v>2</v>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
       </c>
       <c r="X56">
         <v>2</v>
@@ -4295,42 +4320,48 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="R57">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="U57">
         <v>1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
         <v>189</v>
@@ -4338,34 +4369,25 @@
       <c r="E58" t="s">
         <v>72</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>8</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
+      <c r="M58">
+        <v>2</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
         <v>190</v>
@@ -4373,25 +4395,76 @@
       <c r="E59" t="s">
         <v>72</v>
       </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>17</v>
+      </c>
+      <c r="K59">
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
       <c r="M59">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="N59">
+        <v>13</v>
+      </c>
+      <c r="O59">
+        <v>25</v>
+      </c>
+      <c r="P59">
+        <v>9</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>9</v>
+      </c>
+      <c r="U59">
+        <v>6</v>
+      </c>
+      <c r="V59">
+        <v>5</v>
+      </c>
+      <c r="W59">
+        <v>6</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
         <v>191</v>
@@ -4400,376 +4473,340 @@
         <v>72</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>7</v>
       </c>
       <c r="J60">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>6</v>
+      </c>
+      <c r="M60">
         <v>24</v>
       </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="M60">
+      <c r="N60">
+        <v>10</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <v>36</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>35</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>13</v>
+      </c>
+      <c r="V60">
+        <v>11</v>
+      </c>
+      <c r="W60">
+        <v>14</v>
+      </c>
+      <c r="X60">
         <v>16</v>
       </c>
-      <c r="N60">
-        <v>13</v>
-      </c>
-      <c r="O60">
-        <v>25</v>
-      </c>
-      <c r="P60">
-        <v>9</v>
-      </c>
-      <c r="Q60">
-        <v>3</v>
-      </c>
-      <c r="R60">
-        <v>4</v>
-      </c>
-      <c r="S60">
-        <v>5</v>
-      </c>
-      <c r="T60">
-        <v>9</v>
-      </c>
-      <c r="U60">
-        <v>6</v>
-      </c>
-      <c r="V60">
-        <v>5</v>
-      </c>
-      <c r="W60">
-        <v>6</v>
-      </c>
-      <c r="X60">
-        <v>17</v>
-      </c>
       <c r="Y60">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
         <v>72</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>8</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>7</v>
-      </c>
-      <c r="J61">
-        <v>31</v>
-      </c>
-      <c r="K61">
-        <v>4</v>
-      </c>
-      <c r="L61">
-        <v>6</v>
-      </c>
-      <c r="M61">
-        <v>24</v>
-      </c>
-      <c r="N61">
-        <v>10</v>
-      </c>
-      <c r="O61">
-        <v>4</v>
-      </c>
-      <c r="Q61">
-        <v>36</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
       <c r="S61">
-        <v>35</v>
-      </c>
-      <c r="T61">
-        <v>6</v>
-      </c>
-      <c r="U61">
-        <v>13</v>
-      </c>
-      <c r="V61">
-        <v>11</v>
-      </c>
-      <c r="W61">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="X61">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y61">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
         <v>72</v>
       </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
       <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>6</v>
+      </c>
+      <c r="W62">
         <v>2</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E63" t="s">
         <v>72</v>
       </c>
-      <c r="F63">
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>7</v>
+      </c>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>9</v>
+      </c>
+      <c r="T63">
         <v>4</v>
       </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="T63">
-        <v>1</v>
-      </c>
       <c r="U63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X63">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
         <v>72</v>
       </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
       <c r="G64">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="J64">
+        <v>9</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="L64">
+        <v>17</v>
+      </c>
+      <c r="M64">
+        <v>22</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="O64">
+        <v>11</v>
+      </c>
+      <c r="P64">
+        <v>9</v>
       </c>
       <c r="Q64">
+        <v>11</v>
+      </c>
+      <c r="R64">
         <v>8</v>
       </c>
-      <c r="R64">
-        <v>9</v>
+      <c r="S64">
+        <v>5</v>
       </c>
       <c r="T64">
         <v>4</v>
       </c>
       <c r="U64">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X64">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y64">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E65" t="s">
         <v>72</v>
       </c>
       <c r="F65">
-        <v>7</v>
-      </c>
-      <c r="G65">
-        <v>26</v>
-      </c>
-      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="S65">
         <v>14</v>
       </c>
-      <c r="I65">
-        <v>101</v>
-      </c>
-      <c r="J65">
-        <v>9</v>
-      </c>
-      <c r="K65">
-        <v>60</v>
-      </c>
-      <c r="L65">
-        <v>17</v>
-      </c>
-      <c r="M65">
-        <v>22</v>
-      </c>
-      <c r="N65">
-        <v>23</v>
-      </c>
-      <c r="O65">
-        <v>11</v>
-      </c>
-      <c r="P65">
-        <v>9</v>
-      </c>
-      <c r="Q65">
-        <v>11</v>
-      </c>
-      <c r="R65">
-        <v>8</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>8</v>
-      </c>
-      <c r="V65">
-        <v>4</v>
-      </c>
-      <c r="W65">
-        <v>4</v>
-      </c>
       <c r="X65">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Y65">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
       </c>
-      <c r="F66">
-        <v>2</v>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
       </c>
       <c r="S66">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
       </c>
       <c r="X66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y66">
         <v>1</v>
@@ -4777,13 +4814,13 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
         <v>204</v>
@@ -4791,40 +4828,64 @@
       <c r="E67" t="s">
         <v>72</v>
       </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
       <c r="M67">
         <v>1</v>
       </c>
-      <c r="O67">
-        <v>2</v>
-      </c>
-      <c r="P67">
+      <c r="N67">
         <v>1</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
       <c r="S67">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>3</v>
       </c>
       <c r="X67">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
         <v>205</v>
@@ -4833,379 +4894,343 @@
         <v>72</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
         <v>5</v>
       </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>10</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S68">
-        <v>6</v>
-      </c>
-      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>12</v>
+      </c>
+      <c r="W68">
         <v>5</v>
-      </c>
-      <c r="U68">
-        <v>7</v>
-      </c>
-      <c r="V68">
-        <v>3</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
       </c>
       <c r="X68">
         <v>13</v>
       </c>
       <c r="Y68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
         <v>72</v>
       </c>
-      <c r="F69">
-        <v>1</v>
+      <c r="G69">
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L69">
+        <v>21</v>
+      </c>
+      <c r="M69">
         <v>6</v>
       </c>
-      <c r="M69">
-        <v>3</v>
-      </c>
       <c r="N69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P69">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="T69">
+        <v>19</v>
       </c>
       <c r="U69">
+        <v>32</v>
+      </c>
+      <c r="V69">
+        <v>14</v>
+      </c>
+      <c r="W69">
+        <v>8</v>
+      </c>
+      <c r="X69">
+        <v>15</v>
+      </c>
+      <c r="Y69">
         <v>12</v>
-      </c>
-      <c r="W69">
-        <v>5</v>
-      </c>
-      <c r="X69">
-        <v>13</v>
-      </c>
-      <c r="Y69">
-        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
       </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
       <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>11</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>19</v>
+      </c>
+      <c r="M70">
+        <v>27</v>
+      </c>
+      <c r="N70">
+        <v>6</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
         <v>5</v>
       </c>
-      <c r="I70">
-        <v>4</v>
-      </c>
-      <c r="J70">
-        <v>8</v>
-      </c>
-      <c r="K70">
-        <v>13</v>
-      </c>
-      <c r="L70">
-        <v>21</v>
-      </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
-      <c r="N70">
-        <v>7</v>
-      </c>
-      <c r="O70">
-        <v>20</v>
-      </c>
-      <c r="P70">
-        <v>21</v>
-      </c>
       <c r="Q70">
-        <v>11</v>
-      </c>
-      <c r="R70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S70">
         <v>11</v>
       </c>
       <c r="T70">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="U70">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="V70">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X70">
         <v>15</v>
       </c>
       <c r="Y70">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
         <v>72</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>11</v>
-      </c>
-      <c r="J71">
-        <v>4</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>27</v>
-      </c>
-      <c r="N71">
-        <v>6</v>
-      </c>
-      <c r="O71">
-        <v>4</v>
-      </c>
-      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
         <v>5</v>
       </c>
-      <c r="Q71">
+      <c r="U71">
         <v>5</v>
       </c>
-      <c r="S71">
-        <v>11</v>
-      </c>
-      <c r="T71">
-        <v>4</v>
-      </c>
-      <c r="U71">
-        <v>1</v>
-      </c>
       <c r="V71">
-        <v>2</v>
-      </c>
-      <c r="W71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X71">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y71">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
         <v>72</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
-      <c r="I72">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
       <c r="S72">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>5</v>
-      </c>
-      <c r="U72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>1</v>
       </c>
       <c r="X72">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E73" t="s">
         <v>72</v>
       </c>
       <c r="F73">
-        <v>4</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>2</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>3</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>1</v>
-      </c>
-      <c r="V73">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -5214,30 +5239,60 @@
         <v>72</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>9</v>
+      </c>
+      <c r="N74">
+        <v>36</v>
+      </c>
+      <c r="Q74">
+        <v>61</v>
+      </c>
+      <c r="R74">
+        <v>18</v>
+      </c>
+      <c r="S74">
+        <v>29</v>
+      </c>
+      <c r="T74">
+        <v>38</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="V74">
+        <v>9</v>
+      </c>
+      <c r="W74">
+        <v>94</v>
       </c>
       <c r="X74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
         <v>72</v>
@@ -5245,55 +5300,22 @@
       <c r="F75">
         <v>2</v>
       </c>
-      <c r="G75">
-        <v>5</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="K75">
-        <v>9</v>
-      </c>
-      <c r="N75">
-        <v>36</v>
-      </c>
-      <c r="Q75">
-        <v>61</v>
-      </c>
-      <c r="R75">
-        <v>18</v>
-      </c>
-      <c r="S75">
-        <v>29</v>
-      </c>
-      <c r="T75">
-        <v>38</v>
-      </c>
-      <c r="U75">
-        <v>28</v>
-      </c>
-      <c r="V75">
-        <v>9</v>
-      </c>
-      <c r="W75">
-        <v>94</v>
-      </c>
       <c r="X75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y75">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -5302,492 +5324,466 @@
         <v>72</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>23</v>
+      </c>
+      <c r="J76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+      <c r="L76">
+        <v>19</v>
+      </c>
+      <c r="M76">
+        <v>45</v>
+      </c>
+      <c r="N76">
+        <v>16</v>
+      </c>
+      <c r="O76">
+        <v>15</v>
+      </c>
+      <c r="P76">
+        <v>18</v>
+      </c>
+      <c r="Q76">
+        <v>16</v>
+      </c>
+      <c r="R76">
+        <v>5</v>
+      </c>
+      <c r="S76">
+        <v>19</v>
+      </c>
+      <c r="T76">
+        <v>10</v>
+      </c>
+      <c r="U76">
+        <v>13</v>
+      </c>
+      <c r="V76">
+        <v>6</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
       </c>
       <c r="X76">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
         <v>72</v>
       </c>
-      <c r="F77">
-        <v>16</v>
-      </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <v>23</v>
-      </c>
-      <c r="J77">
-        <v>17</v>
-      </c>
       <c r="K77">
-        <v>6</v>
-      </c>
-      <c r="L77">
-        <v>19</v>
-      </c>
-      <c r="M77">
-        <v>45</v>
-      </c>
-      <c r="N77">
-        <v>16</v>
-      </c>
-      <c r="O77">
-        <v>15</v>
-      </c>
-      <c r="P77">
-        <v>18</v>
-      </c>
-      <c r="Q77">
-        <v>16</v>
-      </c>
-      <c r="R77">
-        <v>5</v>
-      </c>
-      <c r="S77">
-        <v>19</v>
-      </c>
-      <c r="T77">
-        <v>10</v>
-      </c>
-      <c r="U77">
-        <v>13</v>
-      </c>
-      <c r="V77">
-        <v>6</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X77">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Y77">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="H78">
+        <v>33</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>9</v>
+      </c>
+      <c r="T78">
+        <v>16</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79">
-        <v>33</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="N79">
-        <v>9</v>
-      </c>
-      <c r="T79">
-        <v>16</v>
-      </c>
-      <c r="X79">
         <v>4</v>
       </c>
-      <c r="Y79">
-        <v>4</v>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>41</v>
+      </c>
+      <c r="G80">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>42</v>
+      </c>
+      <c r="I80">
+        <v>47</v>
+      </c>
+      <c r="J80">
+        <v>43</v>
+      </c>
+      <c r="K80">
+        <v>48</v>
+      </c>
+      <c r="L80">
+        <v>40</v>
+      </c>
+      <c r="M80">
+        <v>46</v>
+      </c>
+      <c r="N80">
+        <v>47</v>
+      </c>
+      <c r="O80">
+        <v>44</v>
+      </c>
+      <c r="P80">
+        <v>37</v>
+      </c>
+      <c r="Q80">
+        <v>51</v>
+      </c>
+      <c r="R80">
+        <v>42</v>
+      </c>
+      <c r="S80">
+        <v>52</v>
+      </c>
+      <c r="T80">
+        <v>47</v>
+      </c>
+      <c r="U80">
+        <v>52</v>
+      </c>
+      <c r="V80">
+        <v>40</v>
+      </c>
+      <c r="W80">
+        <v>48</v>
+      </c>
+      <c r="Y80">
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F81">
-        <v>41</v>
+        <v>947</v>
       </c>
       <c r="G81">
-        <v>40</v>
+        <v>1024</v>
       </c>
       <c r="H81">
-        <v>42</v>
+        <v>1018</v>
       </c>
       <c r="I81">
-        <v>47</v>
+        <v>2915</v>
       </c>
       <c r="J81">
-        <v>43</v>
+        <v>1382</v>
       </c>
       <c r="K81">
-        <v>48</v>
+        <v>2347</v>
       </c>
       <c r="L81">
-        <v>40</v>
+        <v>2338</v>
       </c>
       <c r="M81">
-        <v>46</v>
+        <v>1706</v>
       </c>
       <c r="N81">
-        <v>47</v>
+        <v>2619</v>
       </c>
       <c r="O81">
-        <v>44</v>
+        <v>1795</v>
       </c>
       <c r="P81">
-        <v>37</v>
+        <v>1080</v>
       </c>
       <c r="Q81">
-        <v>51</v>
+        <v>4708</v>
       </c>
       <c r="R81">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="S81">
-        <v>52</v>
+        <v>1133</v>
       </c>
       <c r="T81">
-        <v>47</v>
+        <v>1736</v>
       </c>
       <c r="U81">
-        <v>52</v>
+        <v>2059</v>
       </c>
       <c r="V81">
-        <v>40</v>
+        <v>1410</v>
       </c>
       <c r="W81">
-        <v>48</v>
+        <v>2268</v>
       </c>
       <c r="Y81">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F82">
-        <v>947</v>
-      </c>
-      <c r="G82">
-        <v>1024</v>
-      </c>
-      <c r="H82">
-        <v>1018</v>
-      </c>
-      <c r="I82">
-        <v>2915</v>
-      </c>
-      <c r="J82">
-        <v>1382</v>
-      </c>
-      <c r="K82">
-        <v>2347</v>
-      </c>
-      <c r="L82">
-        <v>2338</v>
-      </c>
-      <c r="M82">
-        <v>1706</v>
-      </c>
-      <c r="N82">
-        <v>2619</v>
-      </c>
-      <c r="O82">
-        <v>1795</v>
-      </c>
-      <c r="P82">
-        <v>1080</v>
-      </c>
-      <c r="Q82">
-        <v>4708</v>
-      </c>
-      <c r="R82">
-        <v>2130</v>
-      </c>
-      <c r="S82">
-        <v>1133</v>
-      </c>
-      <c r="T82">
-        <v>1736</v>
-      </c>
-      <c r="U82">
-        <v>2059</v>
-      </c>
-      <c r="V82">
-        <v>1410</v>
-      </c>
-      <c r="W82">
-        <v>2268</v>
-      </c>
-      <c r="Y82">
         <v>1934</v>
+      </c>
+    </row>
+    <row r="83" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>18</v>
+      </c>
+      <c r="J83">
+        <v>22</v>
+      </c>
+      <c r="K83">
+        <v>14</v>
+      </c>
+      <c r="L83">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>15</v>
+      </c>
+      <c r="N83">
+        <v>15</v>
+      </c>
+      <c r="O83">
+        <v>13</v>
+      </c>
+      <c r="P83">
+        <v>12</v>
+      </c>
+      <c r="Q83">
+        <v>11</v>
+      </c>
+      <c r="R83">
+        <v>12</v>
+      </c>
+      <c r="S83">
+        <v>12</v>
+      </c>
+      <c r="T83">
+        <v>19</v>
+      </c>
+      <c r="U83">
+        <v>18</v>
+      </c>
+      <c r="V83">
+        <v>16</v>
+      </c>
+      <c r="W83">
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I84">
+        <v>28</v>
+      </c>
+      <c r="J84">
         <v>18</v>
       </c>
-      <c r="J84">
-        <v>22</v>
-      </c>
       <c r="K84">
-        <v>14</v>
+        <v>20.5</v>
       </c>
       <c r="L84">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N84">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O84">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P84">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q84">
-        <v>11</v>
+        <v>22.5</v>
       </c>
       <c r="R84">
-        <v>12</v>
+        <v>24.5</v>
       </c>
       <c r="S84">
-        <v>12</v>
+        <v>25.5</v>
       </c>
       <c r="T84">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U84">
+        <v>28.5</v>
+      </c>
+      <c r="V84">
         <v>18</v>
       </c>
-      <c r="V84">
-        <v>16</v>
-      </c>
       <c r="W84">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="6:25" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J85">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>20.5</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>19.5</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>22.5</v>
+        <v>3</v>
       </c>
       <c r="R85">
-        <v>24.5</v>
+        <v>3</v>
       </c>
       <c r="S85">
-        <v>25.5</v>
+        <v>4</v>
       </c>
       <c r="T85">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="U85">
-        <v>28.5</v>
+        <v>4</v>
       </c>
       <c r="V85">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="W85">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="I86">
-        <v>4</v>
-      </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-      <c r="K86">
-        <v>3</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>3</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>4</v>
-      </c>
-      <c r="P86">
-        <v>4</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-      <c r="R86">
-        <v>3</v>
-      </c>
-      <c r="S86">
-        <v>4</v>
-      </c>
-      <c r="T86">
-        <v>4</v>
-      </c>
-      <c r="U86">
-        <v>4</v>
-      </c>
-      <c r="V86">
-        <v>3</v>
-      </c>
-      <c r="W86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F87" s="1">
+      <c r="F86" s="1">
         <v>45890</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G86" s="1">
         <v>45860</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H86" s="1">
         <v>45859</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I86" s="1">
         <v>45858</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J86" s="1">
         <v>45857</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K86" s="1">
         <v>45855</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L86" s="1">
         <v>45854</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M86" s="1">
         <v>45853</v>
       </c>
-      <c r="N87" s="1">
+      <c r="N86" s="1">
         <v>45859</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O86" s="1">
         <v>45857</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P86" s="1">
         <v>45856</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q86" s="1">
         <v>45869</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R86" s="1">
         <v>45868</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S86" s="1">
         <v>45873</v>
       </c>
-      <c r="T87" s="1">
+      <c r="T86" s="1">
         <v>45872</v>
       </c>
-      <c r="U87" s="1">
+      <c r="U86" s="1">
         <v>45871</v>
       </c>
-      <c r="V87" s="1">
+      <c r="V86" s="1">
         <v>45870</v>
       </c>
-      <c r="W87" s="1">
+      <c r="W86" s="1">
         <v>45875</v>
       </c>
     </row>

--- a/MasterCountSheet.xlsx
+++ b/MasterCountSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejnic\Documents\BONWRAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39D6E7-B6AE-4B7B-853C-87E9981FC19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C628B19-2854-474E-B3B3-21CB5414FE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C8658AB-1D65-4586-B8E3-CBCB320D0820}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="229">
   <si>
     <t>Pipevine Swallowtail</t>
   </si>
@@ -705,6 +705,24 @@
   </si>
   <si>
     <t>Common Name</t>
+  </si>
+  <si>
+    <t>Total Species *</t>
+  </si>
+  <si>
+    <t>Total Individuals</t>
+  </si>
+  <si>
+    <t>Observers</t>
+  </si>
+  <si>
+    <t>Party Hours</t>
+  </si>
+  <si>
+    <t>Number of Parties</t>
+  </si>
+  <si>
+    <t>Count Date</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A49DBB-E3C7-4F3C-B8AD-9EA7CC829232}">
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5446,6 +5466,9 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>223</v>
+      </c>
       <c r="F80">
         <v>41</v>
       </c>
@@ -5504,7 +5527,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>224</v>
+      </c>
       <c r="F81">
         <v>947</v>
       </c>
@@ -5563,7 +5589,10 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="83" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
       <c r="F83">
         <v>7</v>
       </c>
@@ -5619,7 +5648,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>226</v>
+      </c>
       <c r="F84">
         <v>8</v>
       </c>
@@ -5675,7 +5707,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>227</v>
+      </c>
       <c r="F85">
         <v>1</v>
       </c>
@@ -5731,7 +5766,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>228</v>
+      </c>
       <c r="F86" s="1">
         <v>45890</v>
       </c>

--- a/MasterCountSheet.xlsx
+++ b/MasterCountSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejnic\Documents\BONWRAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A7C3D-C7F5-465D-8F12-D3BC8F9E25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6566ABE-16FC-4FB9-99C1-EE3016E7A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C8658AB-1D65-4586-B8E3-CBCB320D0820}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Key</t>
+    <t>species_id</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1048576"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
